--- a/Questions English in xlsx/PE Questions English.xlsx
+++ b/Questions English in xlsx/PE Questions English.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>Question Number</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Numeric (max 300)</t>
+  </si>
+  <si>
+    <t>121: Child passed away</t>
+  </si>
+  <si>
+    <t>(if you are doing household chores) with the chores in your household?</t>
   </si>
 </sst>
 </file>
@@ -672,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,261 +867,271 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>100</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>102</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>99</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>101</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>103</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>105</v>
       </c>
     </row>
